--- a/compare.xlsx
+++ b/compare.xlsx
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="results" localSheetId="0">Лист1!$A$1:$C$101</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1620,11 +1620,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1845075904"/>
-        <c:axId val="56763504"/>
+        <c:axId val="1902029968"/>
+        <c:axId val="1902037040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1845075904"/>
+        <c:axId val="1902029968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +1667,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="56763504"/>
+        <c:crossAx val="1902037040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +1675,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="56763504"/>
+        <c:axId val="1902037040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1726,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1845075904"/>
+        <c:crossAx val="1902029968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2652,10 +2652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -2665,7 +2665,7 @@
     <col min="3" max="3" width="21.3125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>101</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2686,12 +2686,8 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>B2*100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2702,7 +2698,7 @@
         <v>1.9099999999980299E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2713,7 +2709,7 @@
         <v>5.4000000000087303E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2724,7 +2720,7 @@
         <v>2.15999999999212E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>6</v>
       </c>
@@ -2735,7 +2731,7 @@
         <v>2.2799999999961001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2746,7 +2742,7 @@
         <v>2.6100999999925899E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>8</v>
       </c>
@@ -2757,7 +2753,7 @@
         <v>4.5000000000072699E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>9</v>
       </c>
@@ -2768,7 +2764,7 @@
         <v>4.8009999999294398E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>10</v>
       </c>
@@ -2779,7 +2775,7 @@
         <v>4.2009999999663697E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2790,7 +2786,7 @@
         <v>4.5000000000072699E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>14</v>
       </c>
@@ -2801,7 +2797,7 @@
         <v>4.0010000000165703E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2812,7 +2808,7 @@
         <v>4.0000000000190898E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>15</v>
       </c>
@@ -2823,7 +2819,7 @@
         <v>4.1999999999688901E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2834,7 +2830,7 @@
         <v>4.2999999999437898E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>3</v>
       </c>
